--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H2">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>36.75720562717756</v>
+        <v>1.901554349733889</v>
       </c>
       <c r="R2">
-        <v>330.814850644598</v>
+        <v>17.113989147605</v>
       </c>
       <c r="S2">
-        <v>0.08886653928113657</v>
+        <v>0.01173813851436057</v>
       </c>
       <c r="T2">
-        <v>0.08886653928113657</v>
+        <v>0.01173813851436057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H3">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>35.860891831306</v>
+        <v>2.557740149587</v>
       </c>
       <c r="R3">
-        <v>322.748026481754</v>
+        <v>23.019661346283</v>
       </c>
       <c r="S3">
-        <v>0.0866995545011469</v>
+        <v>0.0157887194566882</v>
       </c>
       <c r="T3">
-        <v>0.08669955450114691</v>
+        <v>0.0157887194566882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H4">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>24.71591250116089</v>
+        <v>1.449104944966778</v>
       </c>
       <c r="R4">
-        <v>222.443212510448</v>
+        <v>13.041944504701</v>
       </c>
       <c r="S4">
-        <v>0.05975474935258844</v>
+        <v>0.008945205572612379</v>
       </c>
       <c r="T4">
-        <v>0.05975474935258845</v>
+        <v>0.008945205572612377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>58.89984293156466</v>
+        <v>42.72135873215667</v>
       </c>
       <c r="R5">
-        <v>530.098586384082</v>
+        <v>384.49222858941</v>
       </c>
       <c r="S5">
-        <v>0.1423999761739392</v>
+        <v>0.2637154317413648</v>
       </c>
       <c r="T5">
-        <v>0.1423999761739391</v>
+        <v>0.2637154317413647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
         <v>57.463587348654</v>
@@ -818,10 +818,10 @@
         <v>517.1722861378861</v>
       </c>
       <c r="S6">
-        <v>0.1389275940654877</v>
+        <v>0.3547179957937847</v>
       </c>
       <c r="T6">
-        <v>0.1389275940654877</v>
+        <v>0.3547179957937847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.340694</v>
       </c>
       <c r="I7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>39.60484316991467</v>
+        <v>32.55638325727134</v>
       </c>
       <c r="R7">
-        <v>356.443588529232</v>
+        <v>293.007449315442</v>
       </c>
       <c r="S7">
-        <v>0.09575116745763156</v>
+        <v>0.2009678746515661</v>
       </c>
       <c r="T7">
-        <v>0.09575116745763156</v>
+        <v>0.200967874651566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H8">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I8">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J8">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N8">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q8">
-        <v>60.54333359827099</v>
+        <v>7.514371320937778</v>
       </c>
       <c r="R8">
-        <v>544.890002384439</v>
+        <v>67.62934188844001</v>
       </c>
       <c r="S8">
-        <v>0.146373382895125</v>
+        <v>0.04638559577634475</v>
       </c>
       <c r="T8">
-        <v>0.146373382895125</v>
+        <v>0.04638559577634475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H9">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I9">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J9">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>119.145069</v>
       </c>
       <c r="O9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q9">
-        <v>59.06700197223299</v>
+        <v>10.107420400136</v>
       </c>
       <c r="R9">
-        <v>531.6030177500969</v>
+        <v>90.96678360122399</v>
       </c>
       <c r="S9">
-        <v>0.1428041104164716</v>
+        <v>0.06239227434980936</v>
       </c>
       <c r="T9">
-        <v>0.1428041104164716</v>
+        <v>0.06239227434980936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H10">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I10">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J10">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N10">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q10">
-        <v>40.70994272309599</v>
+        <v>5.726427246747556</v>
       </c>
       <c r="R10">
-        <v>366.3894845078639</v>
+        <v>51.53784522072799</v>
       </c>
       <c r="S10">
-        <v>0.09842292585647303</v>
+        <v>0.03534876414346924</v>
       </c>
       <c r="T10">
-        <v>0.09842292585647304</v>
+        <v>0.03534876414346923</v>
       </c>
     </row>
   </sheetData>
